--- a/mbs-perturbation/chain/elm/chain_elm_tanh_results.xlsx
+++ b/mbs-perturbation/chain/elm/chain_elm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9786324786324786</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.8322328931572628</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7292703150912105</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.8382812500000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6260869565217391</v>
+        <v>0.5725247524752476</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5687772925764192</v>
+        <v>0.7826479076479076</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9845787021752687</v>
+        <v>0.9293781557268137</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.462692029190985</v>
+        <v>0.7509914236743256</v>
       </c>
     </row>
   </sheetData>
